--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544965</v>
+        <v>577357.7000544966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183963</v>
+        <v>5475808.405183962</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,22 +744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78.32097487848354</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,67 +1370,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1470,7 +1470,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,7 +1570,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.83685490770591</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,61 +1619,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1865,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>115.3486449381231</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.583694061602047</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,26 +2315,26 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>149.3895849832728</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2634,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.18582309281558</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,73 +2789,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="C29" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>223.5500084481726</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>77.43692675635747</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,31 +3263,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92.95466700954542</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>190.3453970742847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.6683215414929</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>109.4481656569157</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3436,58 +3436,58 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>87.45153673132775</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,64 +3749,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>20.97956913990911</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.94451941863394</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,58 +3898,58 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,28 +4019,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>51.72215467797748</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4116,10 +4116,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>109.8883707013301</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X2" t="n">
-        <v>569.2254314512334</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.7766548071333</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,10 +4416,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878.2251822441752</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>703.7721529630483</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D6" t="n">
-        <v>554.837743301797</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4650,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4844,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
         <v>817.1412885554689</v>
@@ -4890,43 +4890,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C11" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D11" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="12">
@@ -5097,43 +5097,43 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5218,31 +5218,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5601,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>572.9564987484099</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>344.732880484799</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5698,22 +5698,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>787.171420448546</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y21" t="n">
-        <v>955.386757468614</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6078,13 +6078,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C27" t="n">
-        <v>205.7769902389545</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="D27" t="n">
-        <v>56.84258057770322</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>761.6974622895962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>761.6974622895962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,25 +6564,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6637,25 +6637,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
         <v>829.5248650203655</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>210.869396638348</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>210.869396638348</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6883,10 +6883,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E35" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>171.2153985321831</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D36" t="n">
         <v>20.03527576299844</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="W36" t="n">
-        <v>547.1910343172051</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="X36" t="n">
-        <v>547.1910343172051</v>
+        <v>376.7299841892036</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.4307355522512</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7260,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7281,22 +7281,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>555.4877027295624</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>312.0389260854624</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X39" t="n">
-        <v>312.0389260854624</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>634.6640077999109</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>634.6640077999109</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>485.7295981386596</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>326.4921431332041</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>179.9575851600891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>41.22675974270462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7497,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>962.092994481713</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>962.092994481713</v>
       </c>
       <c r="V42" t="n">
-        <v>634.6640077999109</v>
+        <v>962.092994481713</v>
       </c>
       <c r="W42" t="n">
-        <v>634.6640077999109</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X42" t="n">
-        <v>634.6640077999109</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>634.6640077999109</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
         <v>19.28114311021272</v>
@@ -7597,22 +7597,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C44" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>231.8830517671884</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>231.8830517671884</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y44" t="n">
-        <v>231.8830517671884</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="45">
@@ -7734,43 +7734,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>187.4964801302808</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7795,10 +7795,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>303.774711870172</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>174.6270615612551</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,16 +11145,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22632,22 +22632,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>79.3241055769174</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22784,25 +22784,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>20.72228831938942</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -23027,13 +23027,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.1469913286911</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,22 +23258,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>124.4792166637132</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,7 +23309,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>344.2880590747468</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>324.4869424129383</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>84.81608375669853</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,19 +23969,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.0990017157023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>8.255495472128132</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,16 +24339,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,13 +24382,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24491,25 +24491,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="27">
@@ -24522,13 +24522,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>120.4592573625854</v>
+        <v>86.79712786112648</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24585,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,31 +24677,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>289.7791746539352</v>
       </c>
       <c r="C29" t="n">
-        <v>174.9274946967227</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2.391373632802186</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>366.3997666085763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25008,16 +25008,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>59.90659040685317</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,31 +25151,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>272.3182247614621</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>20.13049249612121</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>23.04017744682287</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>116.4932164240591</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>49.89198043188289</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25521,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>88.98961738068115</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25606,10 +25606,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25628,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25637,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>91.25587509658735</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>198.2202092761877</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25883,7 +25883,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,28 +25907,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>276.0301037921574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26004,10 +26004,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>141.8066124595895</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="16">
@@ -26317,16 +26317,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26338,7 +26338,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764737</v>
+        <v>-21225.79564764733</v>
       </c>
       <c r="C6" t="n">
         <v>59543.6358839004</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.6358839004</v>
+        <v>59543.63588390042</v>
       </c>
       <c r="E6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="F6" t="n">
         <v>93171.2358839004</v>
       </c>
-      <c r="F6" t="n">
-        <v>93171.23588390039</v>
-      </c>
       <c r="G6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="H6" t="n">
         <v>93171.2358839004</v>
       </c>
-      <c r="H6" t="n">
-        <v>93171.23588390039</v>
-      </c>
       <c r="I6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="J6" t="n">
-        <v>30111.29328479418</v>
+        <v>30111.29328479415</v>
       </c>
       <c r="K6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="L6" t="n">
         <v>93171.23588390039</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="N6" t="n">
         <v>93171.23588390039</v>
       </c>
       <c r="O6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="P6" t="n">
         <v>93171.23588390039</v>
@@ -34784,13 +34784,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,16 +35735,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37865,16 +37865,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38102,19 +38102,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>188.7717967730204</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
@@ -908,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>124.3469240739945</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,13 +1031,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,19 +1223,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1467,7 +1469,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1503,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>149.4878195522442</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,17 +1612,17 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V14" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>81.28354761542425</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1841,31 +1843,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1929,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>78.98946446248301</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,13 +1976,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>115.3486449381231</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2084,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,58 +2238,58 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>83.3106286157618</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.26531605719669</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>70.84795259427446</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2691,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.95466700954542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,7 +2927,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>223.5500084481726</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>29.05241763862477</v>
+        <v>19.65367633987923</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>83.12218148371487</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>109.4481656569157</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="C38" t="n">
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>107.8030269818536</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>116.7833678227963</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>125.1456920076454</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>1.94451941863394</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>397.4029371266039</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>773.3785729116257</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>773.3785729116257</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>773.3785729116257</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>773.3785729116257</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>565.6182741466719</v>
       </c>
     </row>
     <row r="4">
@@ -4504,10 +4506,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,10 +4892,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
         <v>262.7299197543128</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5127,16 +5129,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>813.0593579831168</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5303,13 +5305,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
         <v>749.627473042513</v>
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>466.3407629892159</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5367,40 +5369,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>572.9564987484099</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>344.732880484799</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5840,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,25 +6010,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
         <v>262.7299197543128</v>
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6127,25 +6129,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
         <v>829.5248650203655</v>
@@ -6251,22 +6253,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>266.0282188019862</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
         <v>19.28114311021272</v>
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.84473158927784</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C27" t="n">
-        <v>90.84473158927784</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>90.84473158927784</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="31">
@@ -6649,13 +6651,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
         <v>829.5248650203655</v>
@@ -6677,7 +6679,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
@@ -6698,7 +6700,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38115216564972</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D33" t="n">
-        <v>49.38115216564972</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E33" t="n">
-        <v>49.38115216564972</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="F33" t="n">
-        <v>49.38115216564972</v>
+        <v>152.5024770257437</v>
       </c>
       <c r="G33" t="n">
-        <v>49.38115216564972</v>
+        <v>152.5024770257437</v>
       </c>
       <c r="H33" t="n">
-        <v>49.38115216564972</v>
+        <v>39.13334143332305</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.9696854242497</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>880.0953560321364</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>880.0953560321364</v>
       </c>
       <c r="U36" t="n">
-        <v>376.7299841892036</v>
+        <v>880.0953560321364</v>
       </c>
       <c r="V36" t="n">
-        <v>376.7299841892036</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W36" t="n">
-        <v>376.7299841892036</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X36" t="n">
-        <v>376.7299841892036</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.9696854242497</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7122,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
         <v>829.5248650203655</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200711</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="W39" t="n">
-        <v>345.004439675971</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>681.7478645149884</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="40">
@@ -7360,10 +7362,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
         <v>829.5248650203655</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.6192102101089</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.668582052591</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>962.092994481713</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>962.092994481713</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V42" t="n">
-        <v>962.092994481713</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W42" t="n">
-        <v>718.6442178376129</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X42" t="n">
-        <v>718.6442178376129</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.883919072659</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C44" t="n">
-        <v>72.23626279480629</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W44" t="n">
-        <v>559.1338160830064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X44" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="46">
@@ -7792,13 +7794,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -8061,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8306,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8775,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22601,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22641,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>37.16958530795443</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>133.7992452391451</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>20.72228831938942</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22917,13 +22919,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,19 +23111,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.1469913286911</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>124.4792166637132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,16 +23311,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,10 +23393,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>76.4535625287306</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V14" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>85.24963603444309</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23589,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23729,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23817,10 +23819,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>66.07974793090087</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23972,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329354</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.3720671615426</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24509,7 +24511,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.9726225988569</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>67.9701157409561</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>86.79712786112648</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24579,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>289.7791746539352</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>74.94203846847482</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2.391373632802186</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>60.3442152127903</v>
+        <v>69.74295651153585</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,10 +25122,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25154,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>272.3182247614621</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,10 +25171,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,10 +25235,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>88.56098962012295</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>116.4932164240591</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25473,13 +25475,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>92.36170171296803</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>88.98961738068115</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>22.2993735569934</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.2202092761877</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>2.212053182593479</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>91.25587509658729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142978</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
   </sheetData>
@@ -26323,10 +26325,10 @@
         <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="G2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="G2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26344,16 +26346,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26442,7 +26444,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764733</v>
+        <v>-21225.79564764734</v>
       </c>
       <c r="C6" t="n">
         <v>59543.6358839004</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390042</v>
+        <v>59543.63588390045</v>
       </c>
       <c r="E6" t="n">
         <v>93171.23588390042</v>
       </c>
       <c r="F6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="G6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="H6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="I6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="J6" t="n">
-        <v>30111.29328479415</v>
+        <v>30111.29328479416</v>
       </c>
       <c r="K6" t="n">
         <v>93171.2358839004</v>
@@ -26552,16 +26554,16 @@
         <v>93171.23588390039</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="N6" t="n">
+        <v>93171.23588390042</v>
+      </c>
+      <c r="O6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="O6" t="n">
-        <v>93171.2358839004</v>
-      </c>
       <c r="P6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390042</v>
       </c>
     </row>
   </sheetData>
@@ -34781,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35258,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36607,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>169.9091475161415</v>
-      </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38099,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
